--- a/example/data.xlsx
+++ b/example/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17780" windowHeight="7630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17775" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sum</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Second</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -106,10 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,19 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -421,11 +416,8 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -445,12 +437,8 @@
         <f>SUM(C2:E2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="2">
-        <f ca="1">NOW()</f>
-        <v>44473.387326620374</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,12 +458,8 @@
         <f>SUM(C3:E3)</f>
         <v>15</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G4" ca="1" si="0">NOW()</f>
-        <v>44473.387326620374</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -494,10 +478,6 @@
       <c r="F4">
         <f>SUM(C4:E4)</f>
         <v>24</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>44473.387326620374</v>
       </c>
     </row>
   </sheetData>
